--- a/Booking/Booking_history.xlsx
+++ b/Booking/Booking_history.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="my_position" sheetId="1" state="visible" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="vol_update" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
   <pivotCaches>
     <pivotCache xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cacheId="3" r:id="rId6"/>
   </pivotCaches>
@@ -368,7 +368,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -428,7 +428,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -492,7 +492,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshOnLoad="1" refreshedBy="CYTech Student" refreshedDate="45551.96959120371" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="9" r:id="rId1">
+<pivotCacheDefinition xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" refreshOnLoad="1" refreshedBy="CYTech Student" refreshedDate="45552.83808842592" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" r:id="rId1">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="histo_order"/>
   </cacheSource>
@@ -523,7 +523,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <r>
     <s v="long"/>
     <x v="0"/>
@@ -578,6 +578,55 @@
     <x v="1"/>
     <n v="1"/>
     <s v="2024-09-13 22:43:35"/>
+    <m/>
+  </r>
+  <r>
+    <s v="short"/>
+    <x v="1"/>
+    <n v="-1"/>
+    <s v="2024-09-17 14:37:40"/>
+    <m/>
+  </r>
+  <r>
+    <s v="short"/>
+    <x v="1"/>
+    <n v="-1"/>
+    <s v="2024-09-17 14:40:43"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="2"/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="long"/>
+    <x v="1"/>
+    <n v="2"/>
+    <s v="2024-09-17 20:06:17"/>
     <m/>
   </r>
   <r>
@@ -1013,96 +1062,96 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>position</t>
         </is>
       </c>
-      <c r="B1" s="5" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>type</t>
         </is>
       </c>
-      <c r="C1" s="5" t="inlineStr">
+      <c r="C1" s="7" t="inlineStr">
         <is>
           <t>quantité</t>
         </is>
       </c>
-      <c r="D1" s="5" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>date heure</t>
         </is>
       </c>
-      <c r="E1" s="5" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>maturité</t>
         </is>
       </c>
-      <c r="F1" s="5" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>asset</t>
         </is>
       </c>
-      <c r="G1" s="5" t="inlineStr">
+      <c r="G1" s="7" t="inlineStr">
         <is>
           <t>price asset</t>
         </is>
       </c>
-      <c r="H1" s="5" t="inlineStr">
+      <c r="H1" s="7" t="inlineStr">
         <is>
           <t>s-p</t>
         </is>
       </c>
-      <c r="I1" s="5" t="inlineStr">
+      <c r="I1" s="7" t="inlineStr">
         <is>
           <t>MtM</t>
         </is>
       </c>
-      <c r="J1" s="5" t="inlineStr">
+      <c r="J1" s="7" t="inlineStr">
         <is>
           <t>strike</t>
         </is>
       </c>
-      <c r="K1" s="5" t="inlineStr">
+      <c r="K1" s="7" t="inlineStr">
         <is>
           <t>moneyness %</t>
         </is>
       </c>
-      <c r="L1" s="5" t="inlineStr">
+      <c r="L1" s="7" t="inlineStr">
         <is>
           <t>vol</t>
         </is>
       </c>
-      <c r="M1" s="5" t="inlineStr">
+      <c r="M1" s="7" t="inlineStr">
         <is>
           <t>vol ST</t>
         </is>
       </c>
-      <c r="N1" s="5" t="inlineStr">
+      <c r="N1" s="7" t="inlineStr">
         <is>
           <t>delta</t>
         </is>
       </c>
-      <c r="O1" s="5" t="inlineStr">
+      <c r="O1" s="7" t="inlineStr">
         <is>
           <t>gamma</t>
         </is>
       </c>
-      <c r="P1" s="5" t="inlineStr">
+      <c r="P1" s="7" t="inlineStr">
         <is>
           <t>theta</t>
         </is>
       </c>
-      <c r="Q1" s="5" t="inlineStr">
+      <c r="Q1" s="7" t="inlineStr">
         <is>
           <t>vega</t>
         </is>
@@ -1444,6 +1493,117 @@
       </c>
       <c r="N9" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:37:40</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>HH NG2!</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>2.418</v>
+      </c>
+      <c r="H10" t="n">
+        <v>24180</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-24180</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>short</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>-1</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2024-09-17 14:40:43</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>HH NG2!</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>2.413</v>
+      </c>
+      <c r="H11" t="n">
+        <v>24130</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-24130</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>long</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>asset</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2024-09-17 20:06:17</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>HH NG2!</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-46800</v>
+      </c>
+      <c r="I12" t="n">
+        <v>46800</v>
+      </c>
+      <c r="N12" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1559,7 +1719,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
         <v>2.5</v>
@@ -1573,28 +1733,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2.384999990463257</v>
+        <v>2.33899998664856</v>
       </c>
       <c r="H2" t="n">
-        <v>3738.920181653649</v>
+        <v>2061.029788443902</v>
       </c>
       <c r="I2" t="n">
-        <v>-4.600000381469727</v>
+        <v>-6.440000534057622</v>
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>3.083198496733885</v>
+        <v>2.100560618278902</v>
       </c>
       <c r="N2" t="n">
-        <v>17.81419456392541</v>
+        <v>16.03239763170449</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01241694613796085</v>
+        <v>0.008636934210048961</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.04537144322476832</v>
+        <v>-0.04447329525966866</v>
       </c>
     </row>
     <row r="3">
@@ -1619,10 +1779,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.384999990463257</v>
+        <v>2.33899998664856</v>
       </c>
       <c r="H3" t="n">
-        <v>-47699.99980926514</v>
+        <v>-46779.99973297119</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -1651,30 +1811,30 @@
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>2.384999990463257</v>
+        <v>2.33899998664856</v>
       </c>
       <c r="H4" t="n">
-        <v>-43961.07962761149</v>
+        <v>-44718.96994452729</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>43077.33083415134</v>
+        <v>44587.33083415133</v>
       </c>
       <c r="K4" t="n">
-        <v>-883.748793460145</v>
+        <v>-131.6391103759597</v>
       </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
-        <v>1.083198496733885</v>
+        <v>0.1005606182789016</v>
       </c>
       <c r="N4" t="n">
-        <v>17.81419456392541</v>
+        <v>16.03239763170449</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01241694613796085</v>
+        <v>0.008636934210048961</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.04537144322476832</v>
+        <v>-0.04447329525966866</v>
       </c>
     </row>
   </sheetData>

--- a/Booking/Booking_history.xlsx
+++ b/Booking/Booking_history.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYTech Student\PycharmProjects\Quantitative_Finance\Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{ACA43921-64D2-4F61-9EBC-40341DEF6130}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{5EE7C9B8-E61C-4A5E-B698-107541E8CB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="my_position" sheetId="1" r:id="rId1"/>
@@ -183,10 +183,10 @@
     <t>date</t>
   </si>
   <si>
-    <t>sp option</t>
-  </si>
-  <si>
-    <t>sp hedge</t>
+    <t>pnl option</t>
+  </si>
+  <si>
+    <t>pnl hedge</t>
   </si>
 </sst>
 </file>
@@ -606,7 +606,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="CYTech Student" refreshedDate="45558.888395833332" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="CYTech Student" refreshedDate="45609.508918402775" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="histo_order"/>
   </cacheSource>
@@ -1169,11 +1169,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
@@ -2044,7 +2048,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>

--- a/Booking/Booking_history.xlsx
+++ b/Booking/Booking_history.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CYTech Student\PycharmProjects\Quantitative_Finance\Booking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{5EE7C9B8-E61C-4A5E-B698-107541E8CB36}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:80001_{775005D6-486E-40B7-9065-48E314818D50}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Étiquettes de lignes</t>
   </si>
@@ -181,12 +181,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>pnl option</t>
-  </si>
-  <si>
-    <t>pnl hedge</t>
   </si>
 </sst>
 </file>
@@ -606,7 +600,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="CYTech Student" refreshedDate="45609.508918402775" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="CYTech Student" refreshedDate="45617.528440393522" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="16" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:E1048576" sheet="histo_order"/>
   </cacheSource>
@@ -1167,10 +1161,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q23"/>
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M12"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1731,30 +1725,6 @@
         <v>-4.8301088106938997E-3</v>
       </c>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H21" t="s">
-        <v>51</v>
-      </c>
-      <c r="I21">
-        <f>SUM(H2,H4,H16)</f>
-        <v>10057.33083415134</v>
-      </c>
-    </row>
-    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="H22" t="s">
-        <v>52</v>
-      </c>
-      <c r="I22">
-        <f>SUM(H3,H5:H15)</f>
-        <v>-9750</v>
-      </c>
-    </row>
-    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
-      <c r="I23">
-        <f>SUM(I21:I22)</f>
-        <v>307.33083415134024</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1765,7 +1735,7 @@
   <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
